--- a/记录统计.xlsx
+++ b/记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12040" tabRatio="688"/>
+    <workbookView windowWidth="28800" windowHeight="11680" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>频率-推荐</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>395-</t>
     </r>
     <r>
@@ -85,6 +91,24 @@
     <t>链表基础操作，要熟练</t>
   </si>
   <si>
+    <t>390-y</t>
+  </si>
+  <si>
+    <t>215.数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>2023.09.10</t>
+  </si>
+  <si>
+    <t>双路快排/ 优先队列</t>
+  </si>
+  <si>
+    <t>311-n</t>
+  </si>
+  <si>
+    <t>code25</t>
+  </si>
+  <si>
     <t>频率</t>
   </si>
   <si>
@@ -103,12 +127,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -137,8 +161,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +178,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -183,16 +208,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,38 +271,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,7 +292,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +326,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,31 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,133 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,11 +566,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +610,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,196 +663,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,72 +853,60 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1193,7 +1205,7 @@
   <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1214,13 +1226,13 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1234,13 +1246,13 @@
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1254,13 +1266,13 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1268,1827 +1280,1841 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="6"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="6"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="169" customHeight="1" spans="1:6">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="6"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="6"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
       <c r="F59" s="6"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="70" customHeight="1" spans="1:6">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
       <c r="F77" s="6"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
       <c r="F91" s="9"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
       <c r="F92" s="6"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
       <c r="F94" s="6"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
       <c r="F97" s="6"/>
     </row>
     <row r="98" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="6"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
       <c r="F100" s="6"/>
     </row>
     <row r="101" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
       <c r="F101" s="6"/>
     </row>
     <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
       <c r="F102" s="6"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A103" s="9"/>
       <c r="B103" s="10"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="9"/>
     </row>
     <row r="104" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
       <c r="F104" s="6"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
       <c r="F105" s="6"/>
     </row>
     <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
       <c r="F106" s="6"/>
     </row>
     <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
       <c r="F107" s="6"/>
     </row>
     <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
       <c r="F108" s="6"/>
     </row>
     <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
       <c r="F109" s="6"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
       <c r="F110" s="6"/>
     </row>
     <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
       <c r="F111" s="6"/>
     </row>
     <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
       <c r="F112" s="6"/>
     </row>
     <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="6"/>
     </row>
     <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
       <c r="F114" s="6"/>
     </row>
     <row r="115" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
       <c r="F115" s="6"/>
     </row>
     <row r="116" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="6"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
       <c r="F117" s="6"/>
     </row>
     <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
       <c r="F118" s="6"/>
     </row>
     <row r="119" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
       <c r="F119" s="6"/>
     </row>
     <row r="120" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
       <c r="F120" s="6"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A121" s="9"/>
       <c r="B121" s="10"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
       <c r="F121" s="9"/>
     </row>
     <row r="122" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
       <c r="F122" s="6"/>
     </row>
     <row r="123" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
       <c r="F123" s="6"/>
     </row>
     <row r="124" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
       <c r="F124" s="6"/>
     </row>
     <row r="125" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
       <c r="F125" s="6"/>
     </row>
     <row r="126" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
       <c r="F126" s="6"/>
     </row>
     <row r="127" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
       <c r="F127" s="6"/>
     </row>
     <row r="128" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
       <c r="F128" s="6"/>
     </row>
     <row r="129" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
       <c r="F129" s="6"/>
     </row>
     <row r="130" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
       <c r="F130" s="6"/>
     </row>
     <row r="131" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
       <c r="F131" s="6"/>
     </row>
     <row r="132" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
       <c r="F132" s="6"/>
     </row>
     <row r="133" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
       <c r="F133" s="6"/>
     </row>
     <row r="134" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
       <c r="F134" s="6"/>
     </row>
     <row r="135" s="1" customFormat="1" ht="94" customHeight="1" spans="1:6">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
       <c r="F135" s="6"/>
     </row>
     <row r="136" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
       <c r="F136" s="6"/>
     </row>
     <row r="137" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
       <c r="F137" s="6"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
       <c r="F138" s="6"/>
     </row>
     <row r="139" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
       <c r="F139" s="6"/>
     </row>
     <row r="140" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
       <c r="F140" s="6"/>
     </row>
     <row r="141" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
       <c r="F141" s="6"/>
     </row>
     <row r="142" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
       <c r="F142" s="6"/>
     </row>
     <row r="143" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
       <c r="F143" s="6"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
       <c r="F144" s="6"/>
     </row>
     <row r="145" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
       <c r="F145" s="6"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
       <c r="F146" s="6"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A147" s="9"/>
       <c r="B147" s="11"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
       <c r="F147" s="9"/>
     </row>
     <row r="148" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
       <c r="F148" s="6"/>
     </row>
     <row r="149" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
       <c r="F149" s="6"/>
     </row>
     <row r="150" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
       <c r="F150" s="6"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
       <c r="F151" s="6"/>
     </row>
     <row r="152" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
       <c r="F152" s="6"/>
     </row>
     <row r="153" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
       <c r="F153" s="6"/>
     </row>
     <row r="154" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
       <c r="F154" s="6"/>
     </row>
     <row r="155" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
       <c r="F155" s="6"/>
     </row>
     <row r="156" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
       <c r="F156" s="6"/>
     </row>
     <row r="157" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
       <c r="F157" s="6"/>
     </row>
     <row r="158" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
       <c r="F158" s="6"/>
     </row>
     <row r="159" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
       <c r="F159" s="6"/>
     </row>
     <row r="160" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
       <c r="F160" s="6"/>
     </row>
     <row r="161" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
       <c r="F161" s="6"/>
     </row>
     <row r="162" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
       <c r="F162" s="6"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="48" customHeight="1" spans="1:6">
       <c r="A163" s="9"/>
       <c r="B163" s="10"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
       <c r="F163" s="9"/>
     </row>
     <row r="164" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
       <c r="F164" s="6"/>
     </row>
     <row r="165" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
       <c r="F165" s="6"/>
     </row>
     <row r="166" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
       <c r="F166" s="6"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A167" s="9"/>
       <c r="B167" s="11"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
       <c r="F167" s="9"/>
     </row>
     <row r="168" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
       <c r="F168" s="6"/>
     </row>
     <row r="169" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
       <c r="F169" s="6"/>
     </row>
     <row r="170" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
       <c r="F170" s="6"/>
     </row>
     <row r="171" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
       <c r="F171" s="6"/>
     </row>
     <row r="172" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
       <c r="F172" s="6"/>
     </row>
     <row r="173" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
       <c r="F173" s="6"/>
     </row>
     <row r="174" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
       <c r="F174" s="6"/>
     </row>
     <row r="175" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
       <c r="F175" s="6"/>
     </row>
     <row r="176" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
       <c r="F176" s="6"/>
     </row>
     <row r="177" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
       <c r="F177" s="6"/>
     </row>
     <row r="178" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
       <c r="F178" s="6"/>
     </row>
     <row r="179" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
       <c r="F179" s="6"/>
     </row>
     <row r="180" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
       <c r="F180" s="6"/>
     </row>
     <row r="181" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
       <c r="F181" s="6"/>
     </row>
     <row r="182" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
       <c r="F182" s="6"/>
     </row>
     <row r="183" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
       <c r="F183" s="6"/>
     </row>
     <row r="184" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
       <c r="F184" s="6"/>
     </row>
     <row r="185" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
       <c r="F185" s="6"/>
     </row>
     <row r="186" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
       <c r="F186" s="6"/>
     </row>
     <row r="187" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
       <c r="F187" s="6"/>
     </row>
     <row r="188" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
       <c r="F188" s="6"/>
     </row>
     <row r="189" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
       <c r="F189" s="6"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
       <c r="F190" s="6"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A191" s="9"/>
       <c r="B191" s="10"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
       <c r="F191" s="9"/>
     </row>
     <row r="192" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
       <c r="F192" s="6"/>
     </row>
     <row r="193" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
       <c r="F193" s="6"/>
     </row>
     <row r="194" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
       <c r="F194" s="6"/>
     </row>
     <row r="195" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
       <c r="F195" s="6"/>
     </row>
     <row r="196" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
       <c r="F196" s="6"/>
     </row>
     <row r="197" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
       <c r="F197" s="6"/>
     </row>
     <row r="198" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
       <c r="F198" s="6"/>
     </row>
     <row r="199" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A199" s="9"/>
       <c r="B199" s="11"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
       <c r="F199" s="9"/>
     </row>
     <row r="200" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
       <c r="F200" s="6"/>
     </row>
     <row r="201" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
       <c r="F201" s="6"/>
     </row>
     <row r="202" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
       <c r="F202" s="6"/>
     </row>
     <row r="203" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
       <c r="F203" s="6"/>
     </row>
     <row r="204" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A204" s="6"/>
       <c r="B204" s="7"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
       <c r="F204" s="6"/>
     </row>
     <row r="205" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A205" s="6"/>
       <c r="B205" s="7"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
       <c r="F205" s="6"/>
     </row>
     <row r="206" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A206" s="6"/>
       <c r="B206" s="7"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
       <c r="F206" s="6"/>
     </row>
     <row r="207" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A207" s="6"/>
       <c r="B207" s="7"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
       <c r="F207" s="6"/>
     </row>
     <row r="208" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A208" s="6"/>
       <c r="B208" s="7"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
       <c r="F208" s="6"/>
     </row>
     <row r="209" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A209" s="6"/>
       <c r="B209" s="7"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
       <c r="F209" s="6"/>
     </row>
     <row r="210" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A210" s="6"/>
       <c r="B210" s="7"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
       <c r="F210" s="6"/>
     </row>
     <row r="211" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A211" s="6"/>
       <c r="B211" s="7"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
       <c r="F211" s="6"/>
     </row>
     <row r="212" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A212" s="6"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
       <c r="F212" s="6"/>
     </row>
     <row r="213" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A213" s="6"/>
       <c r="B213" s="7"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
       <c r="F213" s="6"/>
     </row>
     <row r="214" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
       <c r="F214" s="6"/>
     </row>
     <row r="215" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A215" s="6"/>
       <c r="B215" s="7"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
       <c r="F215" s="6"/>
     </row>
     <row r="216" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="14"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
       <c r="F216" s="6"/>
     </row>
     <row r="217" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A217" s="9"/>
       <c r="B217" s="11"/>
-      <c r="C217" s="17"/>
-      <c r="D217" s="17"/>
-      <c r="E217" s="17"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
       <c r="F217" s="9"/>
     </row>
     <row r="218" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A218" s="6"/>
       <c r="B218" s="7"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
       <c r="F218" s="6"/>
     </row>
     <row r="219" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A219" s="6"/>
       <c r="B219" s="7"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
       <c r="F219" s="6"/>
     </row>
     <row r="220" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A220" s="6"/>
       <c r="B220" s="7"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
       <c r="F220" s="6"/>
     </row>
     <row r="221" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A221" s="6"/>
       <c r="B221" s="7"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
       <c r="F221" s="6"/>
     </row>
     <row r="222" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A222" s="9"/>
       <c r="B222" s="11"/>
-      <c r="C222" s="17"/>
-      <c r="D222" s="17"/>
-      <c r="E222" s="17"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
       <c r="F222" s="9"/>
     </row>
     <row r="223" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
       <c r="F223" s="6"/>
     </row>
     <row r="224" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
       <c r="F224" s="6"/>
     </row>
     <row r="225" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
       <c r="F225" s="6"/>
     </row>
     <row r="226" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
       <c r="F226" s="8"/>
     </row>
     <row r="227" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A227" s="6"/>
       <c r="B227" s="7"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
       <c r="F227" s="12"/>
     </row>
     <row r="228" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
       <c r="F228" s="12"/>
     </row>
     <row r="229" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
       <c r="F229" s="12"/>
     </row>
     <row r="230" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
       <c r="F230" s="12"/>
     </row>
     <row r="231" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
       <c r="F231" s="12"/>
     </row>
     <row r="232" ht="34" customHeight="1"/>
@@ -3118,13 +3144,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3132,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3141,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/记录统计.xlsx
+++ b/记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11680" tabRatio="688"/>
+    <workbookView windowWidth="30700" windowHeight="13820" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$A$2:$F$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$A$2:$F$229</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>频率-推荐</t>
   </si>
@@ -36,77 +36,19 @@
     <t>相关题目</t>
   </si>
   <si>
-    <t>关键词</t>
+    <t>备注</t>
   </si>
   <si>
-    <t>593-y</t>
+    <t>9-n</t>
   </si>
   <si>
-    <t>3. 无重复字符的最长子串</t>
+    <t>912- 排序数组</t>
   </si>
   <si>
-    <t>2023.07.15</t>
+    <t>2024.06.12</t>
   </si>
   <si>
-    <t>2次/否</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>395-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-340-</t>
-    </r>
-  </si>
-  <si>
-    <t>record + slow&amp;fast + Math.max(slow, preSlow+1)</t>
-  </si>
-  <si>
-    <t>548-y</t>
-  </si>
-  <si>
-    <t>206. 反转链表</t>
-  </si>
-  <si>
-    <t>2次/是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92-
-</t>
-  </si>
-  <si>
-    <t>链表基础操作，要熟练</t>
-  </si>
-  <si>
-    <t>390-y</t>
-  </si>
-  <si>
-    <t>215.数组中的第K个最大元素</t>
-  </si>
-  <si>
-    <t>2023.09.10</t>
-  </si>
-  <si>
-    <t>双路快排/ 优先队列</t>
-  </si>
-  <si>
-    <t>311-n</t>
-  </si>
-  <si>
-    <t>code25</t>
+    <t>1次/否</t>
   </si>
   <si>
     <t>频率</t>
@@ -127,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1202,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1249,61 +1191,31 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1381,7 +1293,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1397,7 +1309,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1517,7 +1429,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="32" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1533,7 +1445,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1549,7 +1461,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="36" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1557,7 +1469,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="37" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1565,7 +1477,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="38" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1573,7 +1485,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1589,7 +1501,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="41" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1669,7 +1581,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="51" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1677,7 +1589,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="52" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1685,7 +1597,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
+    <row r="53" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1701,7 +1613,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="55" s="1" customFormat="1" ht="169" customHeight="1" spans="1:6">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1709,7 +1621,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1717,7 +1629,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="169" customHeight="1" spans="1:6">
+    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1749,7 +1661,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="61" s="1" customFormat="1" ht="70" customHeight="1" spans="1:6">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1765,7 +1677,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="70" customHeight="1" spans="1:6">
+    <row r="63" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1973,15 +1885,15 @@
       <c r="E88" s="7"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="89" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1989,15 +1901,15 @@
       <c r="E90" s="7"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+    <row r="91" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -2005,7 +1917,7 @@
       <c r="E92" s="7"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="93" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -2013,7 +1925,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
+    <row r="94" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -2061,7 +1973,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -2069,15 +1981,15 @@
       <c r="E100" s="7"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="101" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -2085,15 +1997,15 @@
       <c r="E102" s="7"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -2213,15 +2125,15 @@
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="119" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -2229,15 +2141,15 @@
       <c r="E120" s="7"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A121" s="9"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
+    <row r="121" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -2253,7 +2165,7 @@
       <c r="E123" s="7"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+    <row r="124" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -2261,7 +2173,7 @@
       <c r="E124" s="7"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+    <row r="125" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -2277,7 +2189,7 @@
       <c r="E126" s="7"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="127" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -2285,7 +2197,7 @@
       <c r="E127" s="7"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="128" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -2293,7 +2205,7 @@
       <c r="E128" s="7"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
+    <row r="129" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -2301,7 +2213,7 @@
       <c r="E129" s="7"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
+    <row r="130" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -2317,7 +2229,7 @@
       <c r="E131" s="7"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="132" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+    <row r="132" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -2325,7 +2237,7 @@
       <c r="E132" s="7"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
+    <row r="133" s="1" customFormat="1" ht="94" customHeight="1" spans="1:6">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -2333,7 +2245,7 @@
       <c r="E133" s="7"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
+    <row r="134" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -2341,7 +2253,7 @@
       <c r="E134" s="7"/>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" s="1" customFormat="1" ht="94" customHeight="1" spans="1:6">
+    <row r="135" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -2413,7 +2325,7 @@
       <c r="E143" s="7"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+    <row r="144" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -2421,15 +2333,15 @@
       <c r="E144" s="7"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A145" s="6"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="6"/>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+    <row r="145" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A145" s="9"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -2437,15 +2349,15 @@
       <c r="E146" s="7"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A147" s="9"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="9"/>
-    </row>
-    <row r="148" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+    <row r="147" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -2501,7 +2413,7 @@
       <c r="E154" s="7"/>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="155" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -2517,7 +2429,7 @@
       <c r="E156" s="7"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="157" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -2541,7 +2453,7 @@
       <c r="E159" s="7"/>
       <c r="F159" s="6"/>
     </row>
-    <row r="160" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="160" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -2549,15 +2461,15 @@
       <c r="E160" s="7"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A161" s="6"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="6"/>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
+    <row r="161" s="2" customFormat="1" ht="48" customHeight="1" spans="1:6">
+      <c r="A161" s="9"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -2565,15 +2477,15 @@
       <c r="E162" s="7"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" s="2" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A163" s="9"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="9"/>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="163" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -2581,13 +2493,13 @@
       <c r="E164" s="7"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A165" s="6"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="6"/>
+    <row r="165" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="A165" s="9"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="9"/>
     </row>
     <row r="166" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A166" s="6"/>
@@ -2597,13 +2509,13 @@
       <c r="E166" s="7"/>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A167" s="9"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="9"/>
+    <row r="167" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A167" s="6"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="6"/>
     </row>
     <row r="168" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A168" s="6"/>
@@ -2773,13 +2685,13 @@
       <c r="E188" s="7"/>
       <c r="F188" s="6"/>
     </row>
-    <row r="189" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A189" s="6"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="6"/>
+    <row r="189" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
+      <c r="A189" s="9"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="9"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A190" s="6"/>
@@ -2789,13 +2701,13 @@
       <c r="E190" s="7"/>
       <c r="F190" s="6"/>
     </row>
-    <row r="191" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A191" s="9"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="9"/>
+    <row r="191" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="6"/>
     </row>
     <row r="192" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A192" s="6"/>
@@ -2837,15 +2749,15 @@
       <c r="E196" s="7"/>
       <c r="F196" s="6"/>
     </row>
-    <row r="197" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A197" s="6"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="6"/>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="197" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
+      <c r="A197" s="9"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -2853,15 +2765,15 @@
       <c r="E198" s="7"/>
       <c r="F198" s="6"/>
     </row>
-    <row r="199" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A199" s="9"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
-      <c r="F199" s="9"/>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="199" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A199" s="6"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -2877,7 +2789,7 @@
       <c r="E201" s="7"/>
       <c r="F201" s="6"/>
     </row>
-    <row r="202" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
+    <row r="202" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -2973,7 +2885,7 @@
       <c r="E213" s="7"/>
       <c r="F213" s="6"/>
     </row>
-    <row r="214" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="214" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -2981,15 +2893,15 @@
       <c r="E214" s="7"/>
       <c r="F214" s="6"/>
     </row>
-    <row r="215" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A215" s="6"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="6"/>
-    </row>
-    <row r="216" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
+    <row r="215" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A215" s="9"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="9"/>
+    </row>
+    <row r="216" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -2997,13 +2909,13 @@
       <c r="E216" s="7"/>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A217" s="9"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
-      <c r="F217" s="9"/>
+    <row r="217" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A217" s="6"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="6"/>
     </row>
     <row r="218" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A218" s="6"/>
@@ -3021,15 +2933,15 @@
       <c r="E219" s="7"/>
       <c r="F219" s="6"/>
     </row>
-    <row r="220" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A220" s="6"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="6"/>
-    </row>
-    <row r="221" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="220" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A220" s="9"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="9"/>
+    </row>
+    <row r="221" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A221" s="6"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -3037,13 +2949,13 @@
       <c r="E221" s="7"/>
       <c r="F221" s="6"/>
     </row>
-    <row r="222" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A222" s="9"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
-      <c r="F222" s="9"/>
+    <row r="222" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A222" s="6"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="6"/>
     </row>
     <row r="223" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A223" s="6"/>
@@ -3053,29 +2965,29 @@
       <c r="E223" s="7"/>
       <c r="F223" s="6"/>
     </row>
-    <row r="224" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="224" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
-      <c r="F224" s="6"/>
-    </row>
-    <row r="225" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="F224" s="8"/>
+    </row>
+    <row r="225" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
-      <c r="F225" s="6"/>
-    </row>
-    <row r="226" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="F225" s="12"/>
+    </row>
+    <row r="226" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
-      <c r="F226" s="8"/>
+      <c r="F226" s="12"/>
     </row>
     <row r="227" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A227" s="6"/>
@@ -3101,23 +3013,7 @@
       <c r="E229" s="7"/>
       <c r="F229" s="12"/>
     </row>
-    <row r="230" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A230" s="6"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="12"/>
-    </row>
-    <row r="231" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A231" s="6"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="12"/>
-    </row>
-    <row r="232" ht="34" customHeight="1"/>
+    <row r="230" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3144,13 +3040,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3158,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3167,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/记录统计.xlsx
+++ b/记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30700" windowHeight="13820" tabRatio="688"/>
+    <workbookView windowWidth="28800" windowHeight="11740" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>频率-推荐</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>1次/否</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>225-y</t>
+  </si>
+  <si>
+    <t>20- 有效的括号</t>
+  </si>
+  <si>
+    <t>2024.06.13</t>
+  </si>
+  <si>
+    <t>1次/是</t>
+  </si>
+  <si>
+    <t>栈</t>
   </si>
   <si>
     <t>频率</t>
@@ -1147,7 +1165,7 @@
   <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1195,15 +1213,27 @@
         <v>9</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A4" s="6"/>
@@ -3040,13 +3070,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3054,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3063,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/记录统计.xlsx
+++ b/记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11740" tabRatio="688"/>
+    <workbookView windowWidth="30700" windowHeight="13820" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>频率-推荐</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>栈</t>
+  </si>
+  <si>
+    <t>440-y</t>
+  </si>
+  <si>
+    <t>215- 数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>2024.06.14</t>
+  </si>
+  <si>
+    <t>快排，双路和三路快排还需要再写</t>
   </si>
   <si>
     <t>频率</t>
@@ -1236,12 +1248,22 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A5" s="6"/>
@@ -3070,13 +3092,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3084,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3093,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/记录统计.xlsx
+++ b/记录统计.xlsx
@@ -12,19 +12,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$A$2:$F$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$B$2:$G$229</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
-    <t>频率-推荐</t>
+    <t>题目</t>
   </si>
   <si>
-    <t>题目</t>
+    <t>频率</t>
+  </si>
+  <si>
+    <t>推荐</t>
   </si>
   <si>
     <t>最新完成时间</t>
@@ -33,16 +36,16 @@
     <t>完成次数/ 是否可以独立完成</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>相关题目</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>912- 排序数组</t>
   </si>
   <si>
-    <t>9-n</t>
-  </si>
-  <si>
-    <t>912- 排序数组</t>
+    <t>n</t>
   </si>
   <si>
     <t>2024.06.12</t>
@@ -54,10 +57,10 @@
     <t>排序</t>
   </si>
   <si>
-    <t>225-y</t>
+    <t>20- 有效的括号</t>
   </si>
   <si>
-    <t>20- 有效的括号</t>
+    <t>y</t>
   </si>
   <si>
     <t>2024.06.13</t>
@@ -69,9 +72,6 @@
     <t>栈</t>
   </si>
   <si>
-    <t>440-y</t>
-  </si>
-  <si>
     <t>215- 数组中的第K个最大元素</t>
   </si>
   <si>
@@ -81,7 +81,13 @@
     <t>快排，双路和三路快排还需要再写</t>
   </si>
   <si>
-    <t>频率</t>
+    <t>203- 移除链表元素</t>
+  </si>
+  <si>
+    <t>2024.06.25</t>
+  </si>
+  <si>
+    <t>206- 反转链表</t>
   </si>
   <si>
     <t>内容</t>
@@ -785,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,7 +831,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1174,31 +1195,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.0288461538462" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6634615384615" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.0673076923077" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8076923076923" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.8173076923077" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.2211538461538" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="41.6634615384615" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.0288461538462" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.0673076923077" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.8076923076923" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.2307692307692" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.8173076923077" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1210,1860 +1231,2117 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6">
+        <v>225</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6">
+        <v>440</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
       </c>
-      <c r="E4" s="13"/>
       <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6">
+        <v>612</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="6"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="6"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="6"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="6"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="6"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="6"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="6"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="169" customHeight="1" spans="1:6">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="169" customHeight="1" spans="1:7">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="6"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="6"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A57" s="7"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="6"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A58" s="7"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="6"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A59" s="7"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="6"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A60" s="7"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="6"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="70" customHeight="1" spans="1:6">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="70" customHeight="1" spans="1:7">
+      <c r="A61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="6"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A62" s="7"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="6"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A63" s="7"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="6"/>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A64" s="7"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="6"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A65" s="7"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="6"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A66" s="7"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="6"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A67" s="7"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A68" s="7"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="6"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A69" s="7"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="6"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="6"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A71" s="7"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A72" s="7"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="6"/>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A73" s="7"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="6"/>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A74" s="7"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="6"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A75" s="7"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="6"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A76" s="7"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="6"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A77" s="7"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="6"/>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A78" s="7"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="6"/>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A79" s="7"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="6"/>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A80" s="7"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="6"/>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A81" s="7"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="6"/>
-    </row>
-    <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="6"/>
-    </row>
-    <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="15"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="6"/>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A84" s="7"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="6"/>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A85" s="7"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="6"/>
-    </row>
-    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A86" s="7"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="6"/>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A87" s="7"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="6"/>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A88" s="7"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="6"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A89" s="10"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="9"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A90" s="7"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="6"/>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
+      <c r="A91" s="7"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="6"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="51" customHeight="1" spans="1:7">
+      <c r="A92" s="7"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="6"/>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A93" s="7"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="6"/>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A94" s="7"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="6"/>
-    </row>
-    <row r="95" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A95" s="7"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="6"/>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A96" s="7"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="6"/>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A97" s="7"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A98" s="7"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="6"/>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A99" s="7"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="6"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A100" s="7"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="6"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A101" s="9"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A101" s="10"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="9"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
+      <c r="G101" s="18"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A102" s="7"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="6"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A103" s="7"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="6"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A104" s="7"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="6"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A105" s="7"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="6"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A106" s="7"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="6"/>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A107" s="7"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A108" s="7"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A109" s="7"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A110" s="7"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
-    </row>
-    <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A111" s="7"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
-    </row>
-    <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A112" s="6"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A112" s="7"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A113" s="7"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A114" s="7"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A115" s="7"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A116" s="6"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A116" s="7"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A117" s="7"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A118" s="6"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A118" s="7"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A119" s="9"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A119" s="10"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="17"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="9"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
-      <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
+      <c r="A120" s="7"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="6"/>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A121" s="7"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A122" s="7"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="15"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A123" s="7"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="15"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="6"/>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A124" s="6"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A124" s="7"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="6"/>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A125" s="7"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="6"/>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A126" s="7"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="15"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="6"/>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
-      <c r="A127" s="6"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="67" customHeight="1" spans="1:7">
+      <c r="A127" s="7"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="6"/>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
-      <c r="A128" s="6"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="38" customHeight="1" spans="1:7">
+      <c r="A128" s="7"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="6"/>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A129" s="7"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="15"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="6"/>
-    </row>
-    <row r="130" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A130" s="7"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="15"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="6"/>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A131" s="7"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="15"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="6"/>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
-      <c r="A132" s="6"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
+      <c r="A132" s="7"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="15"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="6"/>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="94" customHeight="1" spans="1:6">
-      <c r="A133" s="6"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="94" customHeight="1" spans="1:7">
+      <c r="A133" s="7"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="15"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="6"/>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A134" s="6"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A134" s="7"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="15"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="6"/>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A135" s="6"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A135" s="7"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="15"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="6"/>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A136" s="6"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A136" s="7"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="15"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="6"/>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A137" s="7"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="15"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="6"/>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A138" s="6"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A138" s="7"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="15"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="6"/>
-    </row>
-    <row r="139" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A139" s="6"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A139" s="7"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="15"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="6"/>
-    </row>
-    <row r="140" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A140" s="6"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A140" s="7"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="15"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="6"/>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A141" s="7"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="15"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="6"/>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A142" s="7"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="15"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="6"/>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A143" s="7"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="15"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="6"/>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A144" s="6"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A144" s="7"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="15"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="6"/>
-    </row>
-    <row r="145" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A145" s="9"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A145" s="11"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="17"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="9"/>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A146" s="6"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
+      <c r="G145" s="9"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A146" s="7"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="15"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="6"/>
-    </row>
-    <row r="147" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A147" s="7"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="15"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="6"/>
-    </row>
-    <row r="148" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A148" s="6"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A148" s="7"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="15"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="6"/>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A149" s="6"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A149" s="7"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="15"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="6"/>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A150" s="6"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A150" s="7"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="15"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="6"/>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A151" s="7"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="15"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="6"/>
-    </row>
-    <row r="152" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A152" s="6"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A152" s="7"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="15"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="6"/>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A153" s="6"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A153" s="7"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="15"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="6"/>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A154" s="6"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A154" s="7"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="15"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="6"/>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A155" s="6"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A155" s="7"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="15"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="6"/>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A156" s="6"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A156" s="7"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="15"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="6"/>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A157" s="6"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A157" s="7"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="15"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="6"/>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A158" s="6"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A158" s="7"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="15"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="6"/>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A159" s="6"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A159" s="7"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="15"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="6"/>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
-      <c r="A160" s="6"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A160" s="7"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="15"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="6"/>
-    </row>
-    <row r="161" s="2" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A161" s="9"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" s="2" customFormat="1" ht="48" customHeight="1" spans="1:7">
+      <c r="A161" s="10"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="17"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="9"/>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A162" s="6"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
+      <c r="G161" s="18"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A162" s="7"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="15"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="6"/>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A163" s="6"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A163" s="7"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="15"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="6"/>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A164" s="6"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A164" s="7"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="15"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="6"/>
-    </row>
-    <row r="165" s="2" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A165" s="9"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A165" s="11"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="17"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
       <c r="F165" s="9"/>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A166" s="6"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
+      <c r="G165" s="9"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A166" s="7"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="15"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="6"/>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A167" s="6"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A167" s="7"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="15"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="6"/>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A168" s="6"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A168" s="7"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="15"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="6"/>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A169" s="6"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A169" s="7"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="15"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="6"/>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A170" s="6"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A170" s="7"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="15"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="6"/>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A171" s="6"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A171" s="7"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="15"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="6"/>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A172" s="6"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A172" s="7"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="15"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="6"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A173" s="6"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A173" s="7"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="15"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="6"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A174" s="6"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A174" s="7"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="15"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="6"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A175" s="6"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A175" s="7"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="15"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="6"/>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A176" s="6"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A176" s="7"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="15"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="6"/>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A177" s="6"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A177" s="7"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="15"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="6"/>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A178" s="6"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A178" s="7"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="15"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="6"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A179" s="6"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A179" s="7"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="15"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="6"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A180" s="6"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A180" s="7"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="15"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="6"/>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A181" s="6"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A181" s="7"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="15"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="6"/>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A182" s="6"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A182" s="7"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="15"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="6"/>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A183" s="6"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A183" s="7"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="15"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="6"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A184" s="6"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A184" s="7"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="15"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="6"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A185" s="6"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A185" s="7"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="15"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="6"/>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A186" s="6"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A186" s="7"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="15"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="6"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A187" s="6"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A187" s="7"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="15"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="6"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A188" s="6"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A188" s="7"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="15"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="6"/>
-    </row>
-    <row r="189" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A189" s="9"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A189" s="10"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="17"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
       <c r="F189" s="9"/>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A190" s="6"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
+      <c r="G189" s="18"/>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A190" s="7"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="15"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="6"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A191" s="6"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
+      <c r="G190" s="8"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A191" s="7"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="15"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="6"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A192" s="6"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A192" s="7"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="15"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="6"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A193" s="6"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A193" s="7"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="15"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="6"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A194" s="6"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="7"/>
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A194" s="7"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="15"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="6"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A195" s="6"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A195" s="7"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="15"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="6"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A196" s="6"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A196" s="7"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="15"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="6"/>
-    </row>
-    <row r="197" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
-      <c r="A197" s="9"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A197" s="11"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="17"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
       <c r="F197" s="9"/>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A198" s="6"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
+      <c r="G197" s="9"/>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A198" s="7"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="15"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="6"/>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A199" s="6"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="7"/>
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A199" s="7"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="15"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="6"/>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
-      <c r="A200" s="6"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" s="1" customFormat="1" ht="53" customHeight="1" spans="1:7">
+      <c r="A200" s="7"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="15"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="6"/>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A201" s="6"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A201" s="7"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="15"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="6"/>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A202" s="6"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="7"/>
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A202" s="7"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="15"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="6"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A203" s="6"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7"/>
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A203" s="7"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="15"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="6"/>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A204" s="6"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7"/>
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A204" s="7"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="15"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="6"/>
-    </row>
-    <row r="205" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A205" s="6"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A205" s="7"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="15"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
       <c r="F205" s="6"/>
-    </row>
-    <row r="206" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A206" s="6"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A206" s="7"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="15"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="6"/>
-    </row>
-    <row r="207" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A207" s="6"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="7"/>
+      <c r="G206" s="8"/>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A207" s="7"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="15"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="6"/>
-    </row>
-    <row r="208" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A208" s="6"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A208" s="7"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="15"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="6"/>
-    </row>
-    <row r="209" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A209" s="6"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="7"/>
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A209" s="7"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="15"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="6"/>
-    </row>
-    <row r="210" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A210" s="6"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="7"/>
+      <c r="G209" s="8"/>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A210" s="7"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="15"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
       <c r="F210" s="6"/>
-    </row>
-    <row r="211" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A211" s="6"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
+      <c r="G210" s="8"/>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A211" s="7"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="15"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
       <c r="F211" s="6"/>
-    </row>
-    <row r="212" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A212" s="6"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="7"/>
+      <c r="G211" s="8"/>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A212" s="7"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="15"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
       <c r="F212" s="6"/>
-    </row>
-    <row r="213" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A213" s="6"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
+      <c r="G212" s="8"/>
+    </row>
+    <row r="213" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A213" s="7"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="15"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="6"/>
-    </row>
-    <row r="214" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
-      <c r="A214" s="6"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="7"/>
+      <c r="G213" s="8"/>
+    </row>
+    <row r="214" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
+      <c r="A214" s="7"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="15"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
       <c r="F214" s="6"/>
-    </row>
-    <row r="215" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A215" s="9"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" s="2" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A215" s="11"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="17"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
       <c r="F215" s="9"/>
-    </row>
-    <row r="216" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A216" s="6"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="7"/>
+      <c r="G215" s="9"/>
+    </row>
+    <row r="216" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A216" s="7"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="15"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="6"/>
-    </row>
-    <row r="217" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A217" s="6"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
+      <c r="G216" s="8"/>
+    </row>
+    <row r="217" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A217" s="7"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="15"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
       <c r="F217" s="6"/>
-    </row>
-    <row r="218" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A218" s="6"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="7"/>
+      <c r="G217" s="8"/>
+    </row>
+    <row r="218" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A218" s="7"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="15"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
       <c r="F218" s="6"/>
-    </row>
-    <row r="219" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A219" s="6"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="7"/>
+      <c r="G218" s="8"/>
+    </row>
+    <row r="219" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A219" s="7"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="15"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="6"/>
-    </row>
-    <row r="220" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A220" s="9"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
+      <c r="G219" s="8"/>
+    </row>
+    <row r="220" s="2" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A220" s="11"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="17"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="9"/>
-    </row>
-    <row r="221" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A221" s="6"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="7"/>
+      <c r="G220" s="9"/>
+    </row>
+    <row r="221" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A221" s="7"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="15"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="6"/>
-    </row>
-    <row r="222" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A222" s="6"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="7"/>
+      <c r="G221" s="8"/>
+    </row>
+    <row r="222" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A222" s="7"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="15"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="6"/>
-    </row>
-    <row r="223" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A223" s="6"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7"/>
+      <c r="G222" s="8"/>
+    </row>
+    <row r="223" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A223" s="7"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="15"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="6"/>
-    </row>
-    <row r="224" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A224" s="6"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="7"/>
+      <c r="G223" s="8"/>
+    </row>
+    <row r="224" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
+      <c r="A224" s="7"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="15"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="8"/>
-    </row>
-    <row r="225" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A225" s="6"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="7"/>
+      <c r="G224" s="8"/>
+    </row>
+    <row r="225" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A225" s="7"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="15"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="12"/>
-    </row>
-    <row r="226" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A226" s="6"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
+      <c r="G225" s="8"/>
+    </row>
+    <row r="226" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A226" s="7"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="15"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="12"/>
-    </row>
-    <row r="227" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A227" s="6"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
+      <c r="G226" s="8"/>
+    </row>
+    <row r="227" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A227" s="7"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="15"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="12"/>
-    </row>
-    <row r="228" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A228" s="6"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
+      <c r="G227" s="8"/>
+    </row>
+    <row r="228" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A228" s="7"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="15"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
       <c r="F228" s="12"/>
-    </row>
-    <row r="229" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A229" s="6"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
+      <c r="G228" s="8"/>
+    </row>
+    <row r="229" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A229" s="7"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="15"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="12"/>
+      <c r="G229" s="8"/>
     </row>
     <row r="230" ht="34" customHeight="1"/>
   </sheetData>
@@ -3092,13 +3370,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3106,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3115,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6"/>
     </row>
